--- a/Lab_01/data.xlsx
+++ b/Lab_01/data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Python\Econometrics\Lab_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86B653-1378-4103-96FD-01673B99826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4A0F9-E370-4F88-BB67-B464E0E12445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane_01" sheetId="1" r:id="rId1"/>
     <sheet name="dane_02" sheetId="2" r:id="rId2"/>
+    <sheet name="dane_03" sheetId="3" r:id="rId3"/>
+    <sheet name="opis_dane_03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Nr</t>
   </si>
@@ -36,12 +38,163 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Cena używanych samochodów osobowych Voklswagen Golf</t>
+  </si>
+  <si>
+    <t>Dane:</t>
+  </si>
+  <si>
+    <t>Zmienna objaśniana:</t>
+  </si>
+  <si>
+    <t>y- cena samochodu [zł]</t>
+  </si>
+  <si>
+    <t>Zmienne objaśniające:</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>- wiek pojazdu [lata]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>- moc silnika [KM]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>- pojemność silnika [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>- przebieg [tys. km]</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Oszacować model liniowy Y zależne od X1 i X2</t>
+  </si>
+  <si>
+    <t>2) Oszacować model liniowy Y zależne od X1, X3 i X4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -61,8 +222,340 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +568,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -84,23 +756,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="34" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="34" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="86">
+    <cellStyle name="20% — akcent 1 2" xfId="63" xr:uid="{7FF70077-76D5-4A52-9E0B-E40A9552D5C7}"/>
+    <cellStyle name="20% — akcent 1 3" xfId="21" xr:uid="{AA4093E0-1BEA-4972-92E3-2D48A638D326}"/>
+    <cellStyle name="20% — akcent 2 2" xfId="67" xr:uid="{A95D1D73-16E1-4A30-A949-966652663105}"/>
+    <cellStyle name="20% — akcent 2 3" xfId="25" xr:uid="{946CCBD6-8A29-47E3-9400-DC83738B466B}"/>
+    <cellStyle name="20% — akcent 3 2" xfId="71" xr:uid="{C2A21943-C2FE-4B71-8A87-9E24A9C1B3E0}"/>
+    <cellStyle name="20% — akcent 3 3" xfId="29" xr:uid="{5592F2CE-480E-483E-B4DD-7C1F8EBD8BCF}"/>
+    <cellStyle name="20% — akcent 4 2" xfId="75" xr:uid="{FD859048-D75B-425A-AA02-9F90D6D7EFB8}"/>
+    <cellStyle name="20% — akcent 4 3" xfId="33" xr:uid="{0DBDDCF6-220E-4D84-BE68-6F9599D6E0AF}"/>
+    <cellStyle name="20% — akcent 5 2" xfId="79" xr:uid="{4D99E0AF-CB04-4A24-8DC7-9DD4378747E9}"/>
+    <cellStyle name="20% — akcent 5 3" xfId="37" xr:uid="{1BE010C9-4852-4B9A-9C23-3B33369976A4}"/>
+    <cellStyle name="20% — akcent 6 2" xfId="83" xr:uid="{BFB2A66D-3E24-44A8-B975-47BC3541403C}"/>
+    <cellStyle name="20% — akcent 6 3" xfId="41" xr:uid="{00A229B2-3B3E-48F9-90AF-459E5A33E678}"/>
+    <cellStyle name="40% — akcent 1 2" xfId="64" xr:uid="{8DC0E513-AD62-4464-9A03-795D5F64651E}"/>
+    <cellStyle name="40% — akcent 1 3" xfId="22" xr:uid="{E6214007-9FCB-4DEC-9C50-9EB1B72548B7}"/>
+    <cellStyle name="40% — akcent 2 2" xfId="68" xr:uid="{9412209A-439E-48FD-9B98-D96424AE022B}"/>
+    <cellStyle name="40% — akcent 2 3" xfId="26" xr:uid="{DD064A9B-BADD-4DE5-A011-BA5C1BE98497}"/>
+    <cellStyle name="40% — akcent 3 2" xfId="72" xr:uid="{ABBE728A-F7CA-4DB8-8FFB-D4CE96D7ED51}"/>
+    <cellStyle name="40% — akcent 3 3" xfId="30" xr:uid="{92C4D528-432F-4FC1-AF74-06A879FFBDE2}"/>
+    <cellStyle name="40% — akcent 4 2" xfId="76" xr:uid="{429F1A5A-40C4-4503-83C4-30A962EC9E4B}"/>
+    <cellStyle name="40% — akcent 4 3" xfId="34" xr:uid="{50D39ACC-A802-4256-8BFD-EE73F83F85DC}"/>
+    <cellStyle name="40% — akcent 5 2" xfId="80" xr:uid="{B24CD130-B441-47B7-A5F9-1AD8D05A3F30}"/>
+    <cellStyle name="40% — akcent 5 3" xfId="38" xr:uid="{605EE5C6-6166-4017-85F4-E08F56F22694}"/>
+    <cellStyle name="40% — akcent 6 2" xfId="84" xr:uid="{C9B3B16B-F0FE-420C-AC2F-DC05EF858A7C}"/>
+    <cellStyle name="40% — akcent 6 3" xfId="42" xr:uid="{E71DE1C5-4A00-4C3D-B285-8044826C3B4B}"/>
+    <cellStyle name="60% — akcent 1 2" xfId="65" xr:uid="{24EDF30E-DC1E-4C54-9585-4385240C62BD}"/>
+    <cellStyle name="60% — akcent 1 3" xfId="23" xr:uid="{8DC67AB7-8FE4-448B-B8DC-682145F3F22F}"/>
+    <cellStyle name="60% — akcent 2 2" xfId="69" xr:uid="{1ECB54AD-0952-4F6F-ACF9-5A3E0BF5BBEE}"/>
+    <cellStyle name="60% — akcent 2 3" xfId="27" xr:uid="{E8B70C4E-E5A7-4EBB-9EEA-836C65C3F39E}"/>
+    <cellStyle name="60% — akcent 3 2" xfId="73" xr:uid="{89A1EA6B-AB37-4881-AC94-7E13D7132152}"/>
+    <cellStyle name="60% — akcent 3 3" xfId="31" xr:uid="{AF45D7A9-A100-40A4-80DF-98C160B8C0E4}"/>
+    <cellStyle name="60% — akcent 4 2" xfId="77" xr:uid="{F77482F6-E49B-4DDE-AC4D-8827EF258B5F}"/>
+    <cellStyle name="60% — akcent 4 3" xfId="35" xr:uid="{8B6247E6-5F7B-4C8F-A1EB-00D82F9DEB15}"/>
+    <cellStyle name="60% — akcent 5 2" xfId="81" xr:uid="{22FB674E-D997-49E1-8042-2018C56BA63B}"/>
+    <cellStyle name="60% — akcent 5 3" xfId="39" xr:uid="{1C17A4B7-CCE4-475F-A5ED-25E828073957}"/>
+    <cellStyle name="60% — akcent 6 2" xfId="85" xr:uid="{5C45045A-651F-496E-9A21-94FACB5580DC}"/>
+    <cellStyle name="60% — akcent 6 3" xfId="43" xr:uid="{96061B7B-1D74-4D0F-A0D7-C98E99A28248}"/>
+    <cellStyle name="Akcent 1 2" xfId="62" xr:uid="{BECAF360-FC70-47E5-A1FE-981749F062CC}"/>
+    <cellStyle name="Akcent 1 3" xfId="20" xr:uid="{AA6D9FDE-9CF3-482E-BB0B-6E60AA18A04E}"/>
+    <cellStyle name="Akcent 2 2" xfId="66" xr:uid="{2BE6757B-E002-4684-B261-1BD63E0F3B97}"/>
+    <cellStyle name="Akcent 2 3" xfId="24" xr:uid="{5D92357A-8DA0-4ABC-9D59-152D405A006E}"/>
+    <cellStyle name="Akcent 3 2" xfId="70" xr:uid="{4DD65E29-A913-4FD4-8B09-7899AD2DC395}"/>
+    <cellStyle name="Akcent 3 3" xfId="28" xr:uid="{36486BC0-0D85-459F-9313-A4AD7765D1F0}"/>
+    <cellStyle name="Akcent 4 2" xfId="74" xr:uid="{9739CDF3-2854-4A43-A9A5-ACA7D6022407}"/>
+    <cellStyle name="Akcent 4 3" xfId="32" xr:uid="{20AAE311-152C-4E3D-8C89-51E9987131DC}"/>
+    <cellStyle name="Akcent 5 2" xfId="78" xr:uid="{FEACD3E5-44B3-4080-A31D-91BA32B8CE69}"/>
+    <cellStyle name="Akcent 5 3" xfId="36" xr:uid="{9F1A5DA7-81C6-4F73-973F-096A1961AD37}"/>
+    <cellStyle name="Akcent 6 2" xfId="82" xr:uid="{B379D750-5C6F-40F5-BBE4-B3E1A2F0F9E0}"/>
+    <cellStyle name="Akcent 6 3" xfId="40" xr:uid="{4E6CE92D-323B-4B05-BC2F-6CCA58FCEF90}"/>
+    <cellStyle name="Dane wejściowe 2" xfId="53" xr:uid="{9D91203F-6329-4488-B533-C9F50F274B94}"/>
+    <cellStyle name="Dane wejściowe 3" xfId="11" xr:uid="{59FD9C2C-1185-490A-8A82-DCB2C6E2D6AD}"/>
+    <cellStyle name="Dane wyjściowe 2" xfId="54" xr:uid="{FABCB4CD-4C36-4CEE-BFA0-7C827A8242E4}"/>
+    <cellStyle name="Dane wyjściowe 3" xfId="12" xr:uid="{B0931811-F97A-4AB6-A16C-863DC6D0AA43}"/>
+    <cellStyle name="Dobry 2" xfId="50" xr:uid="{7C3D0D60-34F7-4393-8DFF-B53512C97514}"/>
+    <cellStyle name="Dobry 3" xfId="8" xr:uid="{AE195190-BF2E-4F52-BFA4-5A12F93C72CE}"/>
+    <cellStyle name="Komórka połączona 2" xfId="56" xr:uid="{82F61D10-5D01-46DC-832A-4113D752E991}"/>
+    <cellStyle name="Komórka połączona 3" xfId="14" xr:uid="{7BC5D9C6-13C8-4976-B869-58630BD12D60}"/>
+    <cellStyle name="Komórka zaznaczona 2" xfId="57" xr:uid="{99983F17-AC7C-4757-8D98-EB725E579A3B}"/>
+    <cellStyle name="Komórka zaznaczona 3" xfId="15" xr:uid="{4DDE4C72-2DB5-48A3-B163-923090DF4F4F}"/>
+    <cellStyle name="Nagłówek 1 2" xfId="46" xr:uid="{E085E2E7-7A2D-478B-9710-D4B50B48DADC}"/>
+    <cellStyle name="Nagłówek 1 3" xfId="4" xr:uid="{4D6117DE-AD48-4198-8496-DA06FCD7F135}"/>
+    <cellStyle name="Nagłówek 2 2" xfId="47" xr:uid="{ECA1ACB6-5A6B-4C1A-B13A-AFF81CDAA92F}"/>
+    <cellStyle name="Nagłówek 2 3" xfId="5" xr:uid="{B170E092-13E1-4432-B98E-32CBAA2BFF1F}"/>
+    <cellStyle name="Nagłówek 3 2" xfId="48" xr:uid="{A87ED1EC-8600-4659-A362-F404E23A6454}"/>
+    <cellStyle name="Nagłówek 3 3" xfId="6" xr:uid="{389DFF8B-BE38-44BB-B0A2-ED5CA3C34387}"/>
+    <cellStyle name="Nagłówek 4 2" xfId="49" xr:uid="{DA2475BA-E7AB-4E6A-8AE7-20CEA973030E}"/>
+    <cellStyle name="Nagłówek 4 3" xfId="7" xr:uid="{F02E8781-F216-4AE8-9812-39273AFC2842}"/>
+    <cellStyle name="Neutralny 2" xfId="52" xr:uid="{9ECE22AE-79E7-4130-BD67-B51CCB1EEDA3}"/>
+    <cellStyle name="Neutralny 3" xfId="10" xr:uid="{745C5A3E-B088-4AF4-B62D-D1B3E470F1A1}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{3739B7F8-43A3-4F12-90B5-B1127723FD55}"/>
+    <cellStyle name="Normalny 3" xfId="44" xr:uid="{CDED13E2-B462-4648-8EB8-F6183754B589}"/>
+    <cellStyle name="Normalny 4" xfId="2" xr:uid="{AC8F4DAB-AC14-4EDF-BFBD-E9A3CCD48CDD}"/>
+    <cellStyle name="Obliczenia 2" xfId="55" xr:uid="{29C4A5A7-CFC4-403B-898B-AF73154D77DC}"/>
+    <cellStyle name="Obliczenia 3" xfId="13" xr:uid="{8DE1B9CD-0FCE-45E0-8E2D-99AE58834851}"/>
+    <cellStyle name="Suma 2" xfId="61" xr:uid="{3011DADC-D475-4593-B25F-A0A77819A681}"/>
+    <cellStyle name="Suma 3" xfId="19" xr:uid="{58E403AA-C616-454B-9EEF-DECB40172CED}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="60" xr:uid="{46432B3A-10C4-42FF-818D-79CED0433299}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="18" xr:uid="{E06F8BF0-E9D4-4CD8-9A6E-E80EB3FDE028}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="58" xr:uid="{2D53FAE7-93AE-4673-A49F-79F8C95811EE}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="16" xr:uid="{055EABAA-41D1-4332-925C-4A3A90B79349}"/>
+    <cellStyle name="Tytuł 2" xfId="45" xr:uid="{282658A9-5E87-426A-A8F0-2B4297001E72}"/>
+    <cellStyle name="Tytuł 3" xfId="3" xr:uid="{E773DD1B-37C0-4EB2-899E-26E367A558AA}"/>
+    <cellStyle name="Uwaga 2" xfId="59" xr:uid="{E79ED3C1-949D-41B5-982E-A3DC85225D94}"/>
+    <cellStyle name="Uwaga 3" xfId="17" xr:uid="{F2D46DE3-4CAC-48EF-8EBA-958BD2B857C9}"/>
+    <cellStyle name="Zły 2" xfId="51" xr:uid="{EE12ED5F-FA76-4E6E-A4DC-B4AA551C2F5B}"/>
+    <cellStyle name="Zły 3" xfId="9" xr:uid="{B6CFC30D-DBB0-4B71-8B7E-D20DB0DDFC9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,9 +1365,9 @@
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="17.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -408,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -419,7 +1400,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="17.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -430,7 +1411,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -441,7 +1422,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="17.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -452,7 +1433,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -463,7 +1444,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -474,7 +1455,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="17.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -485,7 +1466,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="17.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -496,7 +1477,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="17.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -507,7 +1488,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="17.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -518,7 +1499,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="17.5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -529,7 +1510,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="17.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -540,7 +1521,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="17.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -551,7 +1532,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="17.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -562,7 +1543,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="17.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -582,13 +1563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA25D1D-BF02-4C47-BAA0-76C0F3B492FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="17.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -610,7 +1591,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -621,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="17.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -632,7 +1613,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -643,7 +1624,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="17.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -654,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -665,7 +1646,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -676,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="17.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -687,7 +1668,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="17.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -698,7 +1679,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="17.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -709,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="17.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -718,6 +1699,592 @@
       </c>
       <c r="C12" s="1">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269D0C86-B914-477C-87DA-D69581BFFA4C}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2700</v>
+      </c>
+      <c r="C2" s="6">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1896</v>
+      </c>
+      <c r="F2" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8290</v>
+      </c>
+      <c r="C3" s="6">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>101</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F3" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>19413</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>101</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1400</v>
+      </c>
+      <c r="F4" s="6">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <v>110</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F5" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2900</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>110</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1900</v>
+      </c>
+      <c r="F6" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>90</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1900</v>
+      </c>
+      <c r="F7" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1391</v>
+      </c>
+      <c r="F8" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6899</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>22700</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>105</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13500</v>
+      </c>
+      <c r="C11" s="6">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
+        <v>101</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1896</v>
+      </c>
+      <c r="F11" s="6">
+        <v>273.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6">
+        <v>90</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1896</v>
+      </c>
+      <c r="F12" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>33900</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>105</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1598</v>
+      </c>
+      <c r="F13" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2200</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2300</v>
+      </c>
+      <c r="C15" s="6">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7300</v>
+      </c>
+      <c r="C16" s="6">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F16" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>24300</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>102</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1596</v>
+      </c>
+      <c r="F17" s="6">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6">
+        <v>90</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1897</v>
+      </c>
+      <c r="F18" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7900</v>
+      </c>
+      <c r="C19" s="6">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6">
+        <v>100</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F19" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>42000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>250</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="6">
+        <v>138.19999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6900</v>
+      </c>
+      <c r="C21" s="6">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6">
+        <v>101</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1595</v>
+      </c>
+      <c r="F21" s="6">
+        <v>202.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FCA119-BA7F-4130-AC35-58D48631FF24}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
